--- a/Nomina Grupo.xlsx
+++ b/Nomina Grupo.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw\Desktop\Reto2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Laura" sheetId="1" r:id="rId4"/>
+    <sheet name="Laura" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -210,124 +218,130 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Recepcionista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
-    <font/>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -337,7 +351,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -347,12 +361,19 @@
     </fill>
   </fills>
   <borders count="49">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -363,25 +384,32 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <left/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -389,6 +417,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -397,19 +426,27 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -418,25 +455,32 @@
       <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -444,21 +488,30 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -468,6 +521,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -478,6 +532,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -488,6 +543,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -496,6 +552,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -506,6 +563,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -516,6 +574,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -528,6 +587,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -536,6 +596,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -544,6 +605,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -552,6 +614,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -562,6 +625,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -574,6 +638,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -584,6 +649,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -594,6 +660,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -604,6 +671,7 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -612,6 +680,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -620,6 +689,7 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -630,23 +700,30 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -654,18 +731,23 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
-      <left/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -676,40 +758,69 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <right/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
-      <right/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -722,6 +833,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -734,389 +846,367 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="131">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="36" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="38" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="39" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="40" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="43" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="44" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="45" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="46" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="47" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="48" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1306,45 +1396,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.75"/>
-    <col customWidth="1" min="2" max="5" width="11.38"/>
-    <col customWidth="1" min="6" max="6" width="13.75"/>
-    <col customWidth="1" min="7" max="7" width="11.38"/>
-    <col customWidth="1" min="8" max="8" width="12.13"/>
-    <col customWidth="1" min="9" max="9" width="12.88"/>
-    <col customWidth="1" min="10" max="12" width="11.38"/>
-    <col customWidth="1" min="13" max="26" width="10.0"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1363,22 +1455,22 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="15.0" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1397,20 +1489,20 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="15.0" customHeight="1">
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="127"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1429,20 +1521,22 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="15.0" customHeight="1">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="124"/>
+      <c r="I4" s="127"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1461,20 +1555,20 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="I5" s="25"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1493,16 +1587,16 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="26"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1521,32 +1615,32 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="12.0" customHeight="1">
+    <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="22" t="str">
         <f>D7</f>
         <v>DICIEMBRE</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="33">
-        <v>31.0</v>
+      <c r="I7" s="24">
+        <v>31</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1566,50 +1660,50 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="37" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="40"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1628,20 +1722,20 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="12.0" customHeight="1">
+    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44">
-        <v>1500.0</v>
-      </c>
-      <c r="I10" s="40"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="31"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1660,18 +1754,18 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="12.0" customHeight="1">
+    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="40"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1690,19 +1784,19 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="12.0" customHeight="1">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1718,19 +1812,19 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="12.0" customHeight="1">
+    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1746,16 +1840,16 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="12.0" customHeight="1">
+    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="40"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1774,18 +1868,18 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="12.0" customHeight="1">
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="40"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1804,18 +1898,18 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="12.0" customHeight="1">
+    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1834,18 +1928,18 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="12.0" customHeight="1">
+    <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="40"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1864,18 +1958,18 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="12.0" customHeight="1">
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1894,18 +1988,18 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="12.0" customHeight="1">
+    <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="40"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1924,18 +2018,18 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="12.0" customHeight="1">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="40"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1954,16 +2048,16 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="12.0" customHeight="1">
+    <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="40"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1982,16 +2076,16 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="12.0" customHeight="1">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="40"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2010,18 +2104,18 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="12.0" customHeight="1">
+    <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="40"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2040,16 +2134,16 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="12.0" customHeight="1">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="40"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2068,18 +2162,18 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="12.0" customHeight="1">
+    <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="40"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2098,16 +2192,16 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="12.0" customHeight="1">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="40"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2126,18 +2220,18 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="12.0" customHeight="1">
+    <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="40"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2156,16 +2250,16 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="12.0" customHeight="1">
+    <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="40"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2184,16 +2278,16 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="12.0" customHeight="1">
+    <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="40"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2212,49 +2306,49 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34" t="s">
+    <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="62">
+      <c r="E30" s="27"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="53">
         <f>SUM(H10:H29)</f>
         <v>1500</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+    </row>
+    <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="40"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2273,78 +2367,78 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35" t="s">
+    <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+    </row>
+    <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-    </row>
-    <row r="34" ht="12.0" customHeight="1">
+      <c r="C33" s="27"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+    </row>
+    <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="65" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="40"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2363,23 +2457,23 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="12.0" customHeight="1">
+    <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68">
-        <v>0.048</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="57">
-        <f t="shared" ref="H35:H37" si="1">ROUND($E$58*F35,2)</f>
+      <c r="C35" s="17"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="48">
+        <f t="shared" ref="H35:H37" si="0">ROUND($E$58*F35,2)</f>
         <v>84</v>
       </c>
-      <c r="I35" s="69"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2398,23 +2492,23 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="12.0" customHeight="1">
+    <row r="36" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="68">
-        <v>0.0155</v>
-      </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="57">
-        <f t="shared" si="1"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="59">
+        <v>1.55E-2</v>
+      </c>
+      <c r="G36" s="63"/>
+      <c r="H36" s="48">
+        <f t="shared" si="0"/>
         <v>27.13</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2433,23 +2527,23 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="12.0" customHeight="1">
+    <row r="37" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="68">
-        <v>0.001</v>
-      </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="57">
-        <f t="shared" si="1"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="59">
+        <v>1E-3</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="48">
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2468,23 +2562,23 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="12.0" customHeight="1">
+    <row r="38" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="68">
-        <v>0.047</v>
-      </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="53">
-        <f t="shared" ref="H38:H39" si="2">E38*F38</f>
+      <c r="C38" s="17"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="59">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G38" s="63"/>
+      <c r="H38" s="44">
+        <f t="shared" ref="H38:H39" si="1">E38*F38</f>
         <v>0</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2503,23 +2597,23 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="12.0" customHeight="1">
+    <row r="39" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="68">
+      <c r="C39" s="17"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="59">
         <v>0.02</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="53">
-        <f t="shared" si="2"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="44">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2538,49 +2632,49 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75">
+      <c r="C40" s="27"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66">
         <f>SUM(H35:H39)</f>
         <v>112.88</v>
       </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-    </row>
-    <row r="41" ht="12.0" customHeight="1">
+      <c r="I40" s="55"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+    </row>
+    <row r="41" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="40"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2599,26 +2693,26 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="12.0" customHeight="1">
+    <row r="42" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="67">
         <f>+I30</f>
         <v>1500</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="77">
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="68">
         <v>0.08</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="57">
+      <c r="G42" s="32"/>
+      <c r="H42" s="48">
         <f>ROUND(C42*F42,2)</f>
         <v>120</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2637,18 +2731,18 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="12.0" customHeight="1">
+    <row r="43" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="40"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2667,18 +2761,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="12.0" customHeight="1">
+    <row r="44" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="40"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2697,18 +2791,18 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="12.0" customHeight="1">
+    <row r="45" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="40"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2727,16 +2821,16 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="12.0" customHeight="1">
+    <row r="46" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="40"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2755,86 +2849,86 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="34" t="s">
+    <row r="47" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="80">
+      <c r="E47" s="27"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="71">
         <f>H40+H42+H43+H44+H45</f>
         <v>232.88</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-    </row>
-    <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="34" t="s">
+      <c r="I47" s="55"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+    </row>
+    <row r="48" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="81">
+      <c r="E48" s="27"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="72">
         <f>I30-H47</f>
-        <v>1267.12</v>
-      </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-    </row>
-    <row r="49" ht="12.0" customHeight="1">
+        <v>1267.1199999999999</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+    </row>
+    <row r="49" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="39" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="26"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="30" t="s">
         <v>48</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="82" t="s">
+      <c r="I49" s="73" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="1"/>
@@ -2855,20 +2949,20 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="12.0" customHeight="1">
+    <row r="50" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="83" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="26"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="84">
-        <v>45320.0</v>
+      <c r="G50" s="75">
+        <v>45320</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="40"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2887,16 +2981,16 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="12.0" customHeight="1">
+    <row r="51" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="88"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="79"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2915,16 +3009,16 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="12.0" customHeight="1">
+    <row r="52" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="26"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="26"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="26"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="26"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2943,78 +3037,78 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="12.0" customHeight="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90" t="s">
+    <row r="53" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="80"/>
+      <c r="B53" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="89"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="89"/>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="89"/>
-    </row>
-    <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="89"/>
-      <c r="B54" s="93" t="s">
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
+    </row>
+    <row r="54" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="80"/>
+      <c r="B54" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="89"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-    </row>
-    <row r="55" ht="12.0" customHeight="1">
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+    </row>
+    <row r="55" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="26"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="26"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="40"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3033,21 +3127,21 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="12.0" customHeight="1">
+    <row r="56" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="96">
+      <c r="C56" s="30"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="84">
         <f>SUM(H10:H14)+H18</f>
         <v>1500</v>
       </c>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="40"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3066,25 +3160,25 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="12.0" customHeight="1">
+    <row r="57" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="98">
+      <c r="C57" s="30"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="86">
         <f>+E56/6</f>
         <v>250</v>
       </c>
-      <c r="F57" s="97"/>
-      <c r="G57" s="99" t="s">
+      <c r="F57" s="85"/>
+      <c r="G57" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="100" t="s">
+      <c r="H57" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="I57" s="101"/>
+      <c r="I57" s="110"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3103,27 +3197,27 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="12.0" customHeight="1">
+    <row r="58" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="102" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="103">
+      <c r="E58" s="89">
         <f>E56+E57</f>
         <v>1750</v>
       </c>
-      <c r="F58" s="97"/>
-      <c r="G58" s="104">
-        <v>0.241</v>
-      </c>
-      <c r="H58" s="105">
-        <f t="shared" ref="H58:H63" si="3">+$E$58</f>
+      <c r="F58" s="85"/>
+      <c r="G58" s="90">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H58" s="91">
+        <f t="shared" ref="H58:H63" si="2">+$E$58</f>
         <v>1750</v>
       </c>
-      <c r="I58" s="106">
-        <f t="shared" ref="I58:I63" si="4">+G58*H58</f>
+      <c r="I58" s="92">
+        <f t="shared" ref="I58:I63" si="3">+G58*H58</f>
         <v>421.75</v>
       </c>
       <c r="J58" s="1"/>
@@ -3144,22 +3238,22 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="12.0" customHeight="1">
+    <row r="59" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="99" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="99"/>
-      <c r="H59" s="105">
+      <c r="G59" s="87"/>
+      <c r="H59" s="91">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="I59" s="92">
         <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
-      <c r="I59" s="106">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J59" s="1"/>
@@ -3180,26 +3274,26 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="12.0" customHeight="1">
+    <row r="60" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="97" t="s">
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="110"/>
-      <c r="G60" s="111">
-        <v>0.015</v>
-      </c>
-      <c r="H60" s="105">
+      <c r="F60" s="93"/>
+      <c r="G60" s="94">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H60" s="91">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="I60" s="92">
         <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
-      <c r="I60" s="106">
-        <f t="shared" si="4"/>
         <v>26.25</v>
       </c>
       <c r="J60" s="1"/>
@@ -3220,23 +3314,24 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="12.0" customHeight="1">
+    <row r="61" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="112"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="97" t="s">
+      <c r="B61" s="114"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="114"/>
-      <c r="G61" s="115">
-        <v>0.067</v>
-      </c>
-      <c r="H61" s="105">
+      <c r="F61" s="95"/>
+      <c r="G61" s="96">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H61" s="91">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="I61" s="92">
         <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
-      <c r="I61" s="106">
-        <f t="shared" si="4"/>
         <v>117.25</v>
       </c>
       <c r="J61" s="1"/>
@@ -3257,24 +3352,24 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="12.0" customHeight="1">
+    <row r="62" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="26" t="s">
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="110"/>
-      <c r="G62" s="115">
-        <v>0.006</v>
-      </c>
-      <c r="H62" s="105">
+      <c r="F62" s="93"/>
+      <c r="G62" s="96">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H62" s="91">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="I62" s="92">
         <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
-      <c r="I62" s="106">
-        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
       <c r="J62" s="1"/>
@@ -3295,24 +3390,24 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="12.0" customHeight="1">
+    <row r="63" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="26" t="s">
+      <c r="B63" s="97"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="110"/>
-      <c r="G63" s="115">
-        <v>0.002</v>
-      </c>
-      <c r="H63" s="105">
+      <c r="F63" s="93"/>
+      <c r="G63" s="96">
+        <v>2E-3</v>
+      </c>
+      <c r="H63" s="91">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="I63" s="92">
         <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
-      <c r="I63" s="106">
-        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="J63" s="1"/>
@@ -3333,20 +3428,20 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="12.0" customHeight="1">
+    <row r="64" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="115">
-        <v>0.236</v>
-      </c>
-      <c r="H64" s="121"/>
-      <c r="I64" s="122"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="96">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H64" s="99"/>
+      <c r="I64" s="100"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3365,20 +3460,20 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="12.0" customHeight="1">
+    <row r="65" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="104">
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90">
         <v>0.12</v>
       </c>
-      <c r="H65" s="123"/>
-      <c r="I65" s="122"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="100"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3397,20 +3492,20 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="12.0" customHeight="1">
+    <row r="66" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="124" t="s">
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="I66" s="125">
+      <c r="I66" s="103">
         <f>SUM(I58:I65)</f>
         <v>579.25</v>
       </c>
@@ -3432,89 +3527,89 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="12.0" customHeight="1">
-      <c r="A67" s="48"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="129"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="48"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="48"/>
-      <c r="Z67" s="48"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-      <c r="Y69" s="48"/>
-      <c r="Z69" s="48"/>
+    <row r="67" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+    </row>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3528,9 +3623,7 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B53:I53"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>